--- a/biology/Zoologie/Aulacorthum/Aulacorthum.xlsx
+++ b/biology/Zoologie/Aulacorthum/Aulacorthum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aulacorthum est un genre d'insectes de l'ordre des hémiptères (les hémiptères sont caractérisés par leurs deux paires d'ailes dont l'une, en partie cornée, est transformée en hémiélytre), de la famille des Aphididae (pucerons).
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Fauna Europaea                                      (11 décembre 2017)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Fauna Europaea                                      (11 décembre 2017) :
 du sous genre Aulacorthum (Aulacorthum) :
 Aulacorthum flavum F.P. Muller, 1958
 Aulacorthum knautiae Heie, 1960
